--- a/medicine/Pharmacie/Prednisone/Prednisone.xlsx
+++ b/medicine/Pharmacie/Prednisone/Prednisone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">.
 La prednisone est un corticostéroïde, prodrogue métabolisée par le foie par réduction du carbonyle en hydroxyde par la 11-β-oxydoréductase hépatique, en prednisolone.
@@ -512,7 +524,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 anti-inflammatoire
@@ -548,14 +562,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principal
-L'hormone :
+          <t>Principal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'hormone :
 diffuse à travers la membrane cellulaire ;
 se lie à un récepteur cytosolique formant un complexe avec des protéines de chocs thermiques (HSP 90 et 70) et une immunophiline p59. Après dimérisation, le complexe stéroïde récepteur se lie à des séquences d'ADN spécifiques (éléments de réponse aux corticoïdes ou GRE) ;
 module la transcription des gènes sensibles aux corticoïdes par une interaction avec des facteurs de transcription (protéines cytoplasmiques ou nucléaires) ;
 augmente la transcription et/ou la stabilité de l'ARNm codant les protéines responsables de l'action des glucocorticoïdes ;
 réprime certains gènes au niveau transcriptionnel en interagissant avec les facteurs nucléaires nécessaires à l'activation de ces gènes ;
-augmente la dégradation du ARNm ou inhibe la synthèse ou la sécrétion des protéines ou des cytokines[3],[4],[5],[6],[7],[8],[9],[10],[11],[12].
+augmente la dégradation du ARNm ou inhibe la synthèse ou la sécrétion des protéines ou des cytokines.
 Les effets biologiques de l'action anti-inflammatoire se traduisent par :
 inhibition de la perméabilité vasculaire qui permet le recrutement des globules blancs vers le site de l'inflammation ;
 inhibition des évènements moléculaires liés à l'activation des globules blancs et à leur adhésion aux cellules endothéliales ;
@@ -569,12 +588,7 @@
 diminution de la production et du largage des leucotriènes ;
 dépression de l'activité tumoricide et bactéricide des macrophages et leur différenciation ;
 effet immunosuppresseur sur les lymphocytes T et inhibition de la sécrétion des cytokines par ces lymphocytes T ;
-inhibition de la prolifération des lymphocytes B et des cytokines impliquées dans la synthèse des immunoglobulines(IL 1 à IL 6).
-Secondaire
-Activité granylate cyclase du récepteur qui altère le potentiel électrique des cellules.
-Stimulation de la reproduction des cellules alvéolaires de type II augmentant la production de surfactant pulmonaire[13],[14],[15].
-La double liaison 1-2 augmente l'activité anti-inflammatoire. L'estérification sous forme d'acétate donne un dérivé insoluble : action prolongée.
-</t>
+inhibition de la prolifération des lymphocytes B et des cytokines impliquées dans la synthèse des immunoglobulines(IL 1 à IL 6).</t>
         </is>
       </c>
     </row>
@@ -599,10 +613,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mécanismes d'action</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Secondaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activité granylate cyclase du récepteur qui altère le potentiel électrique des cellules.
+Stimulation de la reproduction des cellules alvéolaires de type II augmentant la production de surfactant pulmonaire.
+La double liaison 1-2 augmente l'activité anti-inflammatoire. L'estérification sous forme d'acétate donne un dérivé insoluble : action prolongée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Effets recherchés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>anti-inflammatoire (principal).
 antiallergique (principal) .
@@ -610,33 +665,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Prednisone</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La prednisone est utilisée pour traiter de très nombreuses maladies allergiques, immunologiques ou cancéreuses[16]. Néanmoins, la grande majorité des patients recevant de la prednisone est traitée pour des maladies pulmonaires ou rhumatologiques[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La prednisone est utilisée pour traiter de très nombreuses maladies allergiques, immunologiques ou cancéreuses. Néanmoins, la grande majorité des patients recevant de la prednisone est traitée pour des maladies pulmonaires ou rhumatologiques.
 Maladies pulmonaires :
 Asthme
 Bronchopneumopathie chronique obstructive
@@ -677,67 +734,71 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Prednisone</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les effets secondaires d'un traitement par prednisone se rencontrent surtout en cas de traitement prolongé mais peuvent également, pour certains d'entre eux, apparaitre dès les tout premiers jours du traitement[17].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les effets secondaires d'un traitement par prednisone se rencontrent surtout en cas de traitement prolongé mais peuvent également, pour certains d'entre eux, apparaitre dès les tout premiers jours du traitement.
 Les effets secondaires principaux sont :
 troubles métaboliques : prise de poids, répartition anormale des graisses, rétention hydrosodée, hypokaliémie, alcalose métabolique, ostéoporose (par augmentation du métabolisme protéique dans les os), fractures, retard de croissance chez l'enfant et l'adolescent, retard de cicatrisation, Ostéo-nécrose, protéolyse, apparition de vergetures, hypertension artérielle ;
 troubles endocriniens : diabète, dérégulation de la synthèse naturelle de glucocorticoïdes à la fin du traitement, troubles du cycle menstruel (règles irrégulières), apparition (ou aggravation) d'une acné, pilosité excessive ou hypertrichose, fragilisation cutanée, ecchymoses, dyslipémie ;
 troubles digestifs : ulcère gastro-duodénal (les glucocorticoïdes augmentent la sécrétion d'acide par l'estomac), hémorragie digestive, sur ulcère gastroduodénal, gastrite aigüe, entérite ou colite, pancréatite aigüe ;
-troubles psychiques : euphorie, excitation, confusion, troubles du sommeil, état dépressif (à l'arrêt du traitement)[18] ;
+troubles psychiques : euphorie, excitation, confusion, troubles du sommeil, état dépressif (à l'arrêt du traitement) ;
 aggravation d'états infectieux : réveil du virus de la varicelle (d'où un zona), réveil de tuberculose, réveil de toxoplasmose, mauvaise lutte contre les états viraux en général (herpès, hépatite, etc.)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Prednisone</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>ulcère gastroduodénal récent ;
 kératite herpétique ;
@@ -745,39 +806,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Prednisone</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Voies d'administration</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>orale.
-La prednisone n'est pas utilisée en voie locale en raison de la nécessité de son métabolisme par le foie pour être activée.
-Posologie et mode d'administration
-Voie générale : en comprimés de 5 ou 20mg. En cas de traitement prolongé, surveillance et précautions usuelles des corticoïdes.</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -799,10 +827,82 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Voies d'administration</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">orale.
+La prednisone n'est pas utilisée en voie locale en raison de la nécessité de son métabolisme par le foie pour être activée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Voies d'administration</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Posologie et mode d'administration</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Voie générale : en comprimés de 5 ou 20mg. En cas de traitement prolongé, surveillance et précautions usuelles des corticoïdes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prednisone</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Disponibilité</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, elle est disponible sous forme de préparations magistrales et notamment sous le nom commercial Pred Forte.
 En Espagne, elle est disponible sous le nom commercial de Dacortín, ou des noms génériques tels Prednisona Alonga. En France, elle est disponible sous le nom commercial de Cortancyl(ND), ou sous forme de médicament générique Prednisone suivi du nom du laboratoire fabricant.
